--- a/src/test/resources/TestData/Pfizer.xlsx
+++ b/src/test/resources/TestData/Pfizer.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB30A83-35FF-4C4E-9306-217943A5C69D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8425CF5E-7353-446F-862A-4CA8ADA34B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20137" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20019" uniqueCount="696">
   <si>
     <t>ScenarioName</t>
   </si>
@@ -2138,6 +2138,15 @@
   <si>
     <t>https://stage.us.jll.com/</t>
   </si>
+  <si>
+    <t>JLL_Workday</t>
+  </si>
+  <si>
+    <t>I am looking for</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
 </sst>
 </file>
 
@@ -2775,16 +2784,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0C4E214-CDFE-4E82-A283-08FE2F2FCE34}">
-  <dimension ref="A1:AJ6"/>
+  <dimension ref="A1:AJ9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.6328125" customWidth="1"/>
     <col min="2" max="2" width="27.7265625" customWidth="1"/>
+    <col min="3" max="3" width="25.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.35">
@@ -2799,108 +2809,40 @@
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>561</v>
-      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -2909,109 +2851,40 @@
       <c r="B3" s="9" t="s">
         <v>690</v>
       </c>
-      <c r="C3" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>514</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>623</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>624</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="S3" s="1">
-        <v>7349085599</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="U3" s="12">
-        <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>1000</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE3" s="13">
-        <v>1861741019</v>
-      </c>
-      <c r="AF3" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG3" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI3" s="1">
-        <v>10</v>
-      </c>
-      <c r="AJ3" s="14" t="s">
-        <v>155</v>
-      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="13"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="10"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="14"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
@@ -3020,108 +2893,40 @@
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="U5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AH5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ5" s="1" t="s">
-        <v>561</v>
-      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
@@ -3130,122 +2935,68 @@
       <c r="B6" s="9" t="s">
         <v>692</v>
       </c>
-      <c r="C6" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>514</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>623</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>624</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M6" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="N6" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="S6" s="1">
-        <v>7349085599</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="U6" s="12">
-        <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z6" s="1">
-        <v>1000</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB6" s="1">
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="14"/>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>693</v>
+      </c>
+      <c r="B8" t="s">
         <v>1</v>
       </c>
-      <c r="AC6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE6" s="13">
-        <v>1861741019</v>
-      </c>
-      <c r="AF6" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG6" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI6" s="1">
-        <v>10</v>
-      </c>
-      <c r="AJ6" s="14" t="s">
-        <v>155</v>
+      <c r="C8" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>693</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>692</v>
+      </c>
+      <c r="C9" t="s">
+        <v>695</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{21E2906D-F1D8-4256-B3B2-4182651E73BE}"/>
-    <hyperlink ref="E3" r:id="rId2" display="Aniket.patil@conduent.com" xr:uid="{AE7AA303-E88A-4621-8426-D65690DE485A}"/>
-    <hyperlink ref="F3" r:id="rId3" display="May@1234" xr:uid="{42781F5B-52EE-474F-BAD2-2F3B8B11C706}"/>
-    <hyperlink ref="D3" r:id="rId4" display="Conduent@2019" xr:uid="{B9A4AEB8-0A62-40B4-8820-D8B7873EFCEB}"/>
-    <hyperlink ref="C3" r:id="rId5" display="sameera.m@conduent.com.pfizer.pfzuatnew" xr:uid="{4FB3D7E5-E287-407C-8EA2-D154B0158D1E}"/>
-    <hyperlink ref="B6" r:id="rId6" xr:uid="{6FA97362-52C6-48AE-88C6-DD78FDD9C0A0}"/>
-    <hyperlink ref="E6" r:id="rId7" display="Aniket.patil@conduent.com" xr:uid="{00D9357C-F99D-4CD9-8A02-03455E2138C7}"/>
-    <hyperlink ref="F6" r:id="rId8" display="May@1234" xr:uid="{7E225D73-D866-4547-894D-88D1E152EE0D}"/>
-    <hyperlink ref="D6" r:id="rId9" display="Conduent@2019" xr:uid="{2799F943-881E-433A-9AA0-7F9230AC4A7E}"/>
-    <hyperlink ref="C6" r:id="rId10" display="sameera.m@conduent.com.pfizer.pfzuatnew" xr:uid="{35602F26-88C6-4EE4-9164-36B83910B72F}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{6FA97362-52C6-48AE-88C6-DD78FDD9C0A0}"/>
+    <hyperlink ref="B9" r:id="rId3" xr:uid="{F655B9E4-12D7-4A8D-94C0-B188B144733D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3449,7 +3200,7 @@
       </c>
       <c r="U3" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V3" s="1" t="s">
         <v>36</v>
@@ -3682,7 +3433,7 @@
       </c>
       <c r="U6" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V6" s="1" t="s">
         <v>36</v>
@@ -3915,7 +3666,7 @@
       </c>
       <c r="U9" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V9" s="1" t="s">
         <v>36</v>
@@ -4148,7 +3899,7 @@
       </c>
       <c r="U12" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V12" s="1" t="s">
         <v>36</v>
@@ -4384,7 +4135,7 @@
       </c>
       <c r="U15" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V15" s="1" t="s">
         <v>36</v>
@@ -4626,7 +4377,7 @@
       </c>
       <c r="U18" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V18" s="1" t="s">
         <v>36</v>
@@ -4865,7 +4616,7 @@
       </c>
       <c r="U21" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V21" s="1" t="s">
         <v>36</v>
@@ -5159,7 +4910,7 @@
       </c>
       <c r="S3" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>36</v>
@@ -5380,7 +5131,7 @@
       </c>
       <c r="S6" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>36</v>
@@ -5601,7 +5352,7 @@
       </c>
       <c r="S9" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="T9" s="1" t="s">
         <v>36</v>
@@ -5828,7 +5579,7 @@
       </c>
       <c r="S13" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="T13" s="1" t="s">
         <v>36</v>
@@ -6053,7 +5804,7 @@
       </c>
       <c r="S16" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="T16" s="1" t="s">
         <v>36</v>
@@ -6274,7 +6025,7 @@
       </c>
       <c r="S19" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="T19" s="1" t="s">
         <v>36</v>
@@ -6498,7 +6249,7 @@
       </c>
       <c r="S22" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="T22" s="1" t="s">
         <v>36</v>
@@ -6734,7 +6485,7 @@
       </c>
       <c r="S26" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="T26" s="1" t="s">
         <v>36</v>
@@ -6955,7 +6706,7 @@
       </c>
       <c r="S29" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="T29" s="1" t="s">
         <v>36</v>
@@ -7179,7 +6930,7 @@
       </c>
       <c r="S32" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="T32" s="1" t="s">
         <v>36</v>
@@ -7409,7 +7160,7 @@
       </c>
       <c r="S37" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="T37" s="1" t="s">
         <v>36</v>
@@ -7637,7 +7388,7 @@
       </c>
       <c r="S41" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="T41" s="1" t="s">
         <v>36</v>
@@ -7856,7 +7607,7 @@
       </c>
       <c r="S44" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="T44" s="1" t="s">
         <v>36</v>
@@ -8078,7 +7829,7 @@
       </c>
       <c r="S47" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="T47" s="1" t="s">
         <v>36</v>
@@ -8297,7 +8048,7 @@
       </c>
       <c r="S50" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="T50" s="1" t="s">
         <v>36</v>
@@ -8516,7 +8267,7 @@
       </c>
       <c r="S53" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="T53" s="1" t="s">
         <v>36</v>
@@ -8738,7 +8489,7 @@
       </c>
       <c r="S56" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="T56" s="1" t="s">
         <v>36</v>
@@ -8957,7 +8708,7 @@
       </c>
       <c r="S59" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="T59" s="1" t="s">
         <v>36</v>
@@ -9176,7 +8927,7 @@
       </c>
       <c r="S62" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="T62" s="1" t="s">
         <v>36</v>
@@ -9395,7 +9146,7 @@
       </c>
       <c r="S65" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="T65" s="1" t="s">
         <v>36</v>
@@ -11054,7 +10805,7 @@
       </c>
       <c r="Z3" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="AA3" s="1" t="s">
         <v>36</v>
@@ -11490,7 +11241,7 @@
       </c>
       <c r="U4" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V4" s="1" t="s">
         <v>36</v>
@@ -11713,7 +11464,7 @@
       </c>
       <c r="U7" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V7" s="1" t="s">
         <v>36</v>
@@ -11940,7 +11691,7 @@
       </c>
       <c r="U10" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V10" s="1" t="s">
         <v>36</v>
@@ -12171,7 +11922,7 @@
       </c>
       <c r="U13" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V13" s="1" t="s">
         <v>36</v>
@@ -12398,7 +12149,7 @@
       </c>
       <c r="U16" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V16" s="1" t="s">
         <v>36</v>
@@ -12616,7 +12367,7 @@
       </c>
       <c r="U19" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V19" s="1" t="s">
         <v>36</v>
@@ -12831,7 +12582,7 @@
       </c>
       <c r="U22" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V22" s="1" t="s">
         <v>36</v>
@@ -13047,7 +12798,7 @@
       </c>
       <c r="U25" s="38">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V25" s="1" t="s">
         <v>36</v>
@@ -13269,7 +13020,7 @@
       </c>
       <c r="U28" s="38">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V28" s="1" t="s">
         <v>36</v>
@@ -13499,7 +13250,7 @@
       </c>
       <c r="U31" s="38">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V31" s="1" t="s">
         <v>36</v>
@@ -13732,7 +13483,7 @@
       </c>
       <c r="U34" s="38">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V34" s="1" t="s">
         <v>36</v>
@@ -13965,7 +13716,7 @@
       </c>
       <c r="U37" s="38">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V37" s="1" t="s">
         <v>36</v>
@@ -14022,7 +13773,7 @@
     <row r="43" spans="1:38" x14ac:dyDescent="0.35">
       <c r="H43" s="38">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
     </row>
   </sheetData>
@@ -14286,7 +14037,7 @@
       </c>
       <c r="U3" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V3" s="1" t="s">
         <v>36</v>
@@ -14513,7 +14264,7 @@
       </c>
       <c r="U6" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V6" s="1" t="s">
         <v>36</v>
@@ -14738,7 +14489,7 @@
       </c>
       <c r="U9" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V9" s="1" t="s">
         <v>36</v>
@@ -14964,7 +14715,7 @@
       </c>
       <c r="U12" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V12" s="1" t="s">
         <v>36</v>
@@ -15192,7 +14943,7 @@
       </c>
       <c r="U15" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V15" s="1" t="s">
         <v>36</v>
@@ -15417,7 +15168,7 @@
       </c>
       <c r="U18" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V18" s="1" t="s">
         <v>36</v>
@@ -15640,7 +15391,7 @@
       </c>
       <c r="U21" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V21" s="1" t="s">
         <v>36</v>
@@ -15863,7 +15614,7 @@
       </c>
       <c r="U24" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V24" s="1" t="s">
         <v>36</v>
@@ -16084,7 +15835,7 @@
       </c>
       <c r="U27" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V27" s="1" t="s">
         <v>36</v>
@@ -16310,7 +16061,7 @@
       </c>
       <c r="U30" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V30" s="1" t="s">
         <v>36</v>
@@ -16537,7 +16288,7 @@
       </c>
       <c r="U33" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V33" s="1" t="s">
         <v>36</v>
@@ -16764,7 +16515,7 @@
       </c>
       <c r="U36" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V36" s="1" t="s">
         <v>36</v>
@@ -17107,7 +16858,7 @@
       </c>
       <c r="U3" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V3" t="s">
         <v>36</v>
@@ -17341,7 +17092,7 @@
       </c>
       <c r="U6" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V6" t="s">
         <v>36</v>
@@ -17586,7 +17337,7 @@
       </c>
       <c r="U9" s="38">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V9" t="s">
         <v>36</v>
@@ -17882,7 +17633,7 @@
       </c>
       <c r="U3">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V3" t="s">
         <v>36</v>
@@ -18139,7 +17890,7 @@
       </c>
       <c r="U6">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V6" t="s">
         <v>36</v>
@@ -18402,7 +18153,7 @@
       </c>
       <c r="U9">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V9" t="s">
         <v>36</v>
@@ -18671,7 +18422,7 @@
       </c>
       <c r="U12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V12" t="s">
         <v>36</v>
@@ -18940,7 +18691,7 @@
       </c>
       <c r="U15">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V15" t="s">
         <v>36</v>
@@ -19203,7 +18954,7 @@
       </c>
       <c r="U18">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V18" t="s">
         <v>36</v>
@@ -19460,7 +19211,7 @@
       </c>
       <c r="U21">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V21" t="s">
         <v>36</v>
@@ -19717,7 +19468,7 @@
       </c>
       <c r="U24">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V24" t="s">
         <v>36</v>
@@ -19974,7 +19725,7 @@
       </c>
       <c r="U27">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V27" t="s">
         <v>36</v>
@@ -20231,7 +19982,7 @@
       </c>
       <c r="U30">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V30" t="s">
         <v>36</v>
@@ -20488,7 +20239,7 @@
       </c>
       <c r="U33">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V33" t="s">
         <v>36</v>
@@ -20751,7 +20502,7 @@
       </c>
       <c r="U36">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V36" t="s">
         <v>36</v>
@@ -21020,7 +20771,7 @@
       </c>
       <c r="U39">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V39" t="s">
         <v>36</v>
@@ -21289,7 +21040,7 @@
       </c>
       <c r="U42">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V42" t="s">
         <v>36</v>
@@ -21552,7 +21303,7 @@
       </c>
       <c r="U45">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V45" t="s">
         <v>36</v>
@@ -21830,7 +21581,7 @@
       </c>
       <c r="U3">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V3" t="s">
         <v>36</v>
@@ -21967,7 +21718,7 @@
       </c>
       <c r="U6">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V6" t="s">
         <v>36</v>
@@ -22104,7 +21855,7 @@
       </c>
       <c r="U9">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V9" t="s">
         <v>36</v>
@@ -22241,7 +21992,7 @@
       </c>
       <c r="U12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V12" t="s">
         <v>36</v>
@@ -22381,7 +22132,7 @@
       </c>
       <c r="U15">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V15" t="s">
         <v>36</v>
@@ -22524,7 +22275,7 @@
       </c>
       <c r="U18">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V18" t="s">
         <v>36</v>
@@ -22667,7 +22418,7 @@
       </c>
       <c r="U21">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V21" t="s">
         <v>36</v>
@@ -22810,7 +22561,7 @@
       </c>
       <c r="U24">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V24" t="s">
         <v>36</v>
@@ -22953,7 +22704,7 @@
       </c>
       <c r="U27">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V27" t="s">
         <v>36</v>
@@ -23096,7 +22847,7 @@
       </c>
       <c r="U30">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V30" t="s">
         <v>36</v>
@@ -23239,7 +22990,7 @@
       </c>
       <c r="U33">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V33" t="s">
         <v>36</v>
@@ -23382,7 +23133,7 @@
       </c>
       <c r="U36">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V36" t="s">
         <v>36</v>
@@ -23525,7 +23276,7 @@
       </c>
       <c r="U39">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V39" t="s">
         <v>36</v>
@@ -23671,7 +23422,7 @@
       </c>
       <c r="U42">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V42" t="s">
         <v>36</v>
@@ -23844,7 +23595,7 @@
       </c>
       <c r="U45">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V45" t="s">
         <v>36</v>
@@ -24041,7 +23792,7 @@
       </c>
       <c r="U48">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V48" t="s">
         <v>36</v>
@@ -24238,7 +23989,7 @@
       </c>
       <c r="U51">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V51" t="s">
         <v>36</v>
@@ -24435,7 +24186,7 @@
       </c>
       <c r="U54">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V54" t="s">
         <v>36</v>
@@ -25918,7 +25669,7 @@
       </c>
       <c r="U3" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V3" s="1" t="s">
         <v>36</v>
@@ -26139,7 +25890,7 @@
       </c>
       <c r="U6" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V6" s="1" t="s">
         <v>36</v>
@@ -26360,7 +26111,7 @@
       </c>
       <c r="U9" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V9" s="1" t="s">
         <v>36</v>
@@ -26584,7 +26335,7 @@
       </c>
       <c r="U12" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V12" s="1" t="s">
         <v>36</v>
@@ -26805,7 +26556,7 @@
       </c>
       <c r="U15" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V15" s="1" t="s">
         <v>36</v>
@@ -26984,7 +26735,7 @@
       </c>
       <c r="U18" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V18" s="14" t="s">
         <v>155</v>
@@ -27163,7 +26914,7 @@
       </c>
       <c r="U21" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V21" s="1" t="s">
         <v>36</v>
@@ -27384,7 +27135,7 @@
       </c>
       <c r="U24" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V24" s="1" t="s">
         <v>36</v>
@@ -27685,7 +27436,7 @@
       </c>
       <c r="U3" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V3" s="1" t="s">
         <v>36</v>
@@ -27936,7 +27687,7 @@
       </c>
       <c r="U6" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V6" s="1" t="s">
         <v>36</v>
@@ -28190,7 +27941,7 @@
       </c>
       <c r="U9" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V9" s="1" t="s">
         <v>36</v>
@@ -28453,7 +28204,7 @@
       </c>
       <c r="U12" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V12" s="1" t="s">
         <v>36</v>
@@ -28722,7 +28473,7 @@
       </c>
       <c r="U15" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V15" s="1" t="s">
         <v>36</v>
@@ -29000,7 +28751,7 @@
       </c>
       <c r="U18" s="49">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V18" s="6" t="s">
         <v>36</v>
@@ -29273,7 +29024,7 @@
       </c>
       <c r="U21" s="49">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V21" s="6" t="s">
         <v>36</v>
@@ -29560,7 +29311,7 @@
       </c>
       <c r="U25" s="49">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V25" s="6" t="s">
         <v>36</v>
@@ -29865,7 +29616,7 @@
       </c>
       <c r="U28" s="49">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V28" s="6" t="s">
         <v>36</v>
@@ -30157,7 +29908,7 @@
       </c>
       <c r="U34" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V34" s="1" t="s">
         <v>36</v>
@@ -30426,7 +30177,7 @@
       </c>
       <c r="U37" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V37" s="1" t="s">
         <v>36</v>
@@ -30701,7 +30452,7 @@
       </c>
       <c r="U40" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V40" s="1" t="s">
         <v>36</v>
@@ -30985,7 +30736,7 @@
       </c>
       <c r="U43" s="49">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V43" s="6" t="s">
         <v>36</v>
@@ -31269,7 +31020,7 @@
       </c>
       <c r="U46" s="49">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V46" s="6" t="s">
         <v>36</v>
@@ -31550,7 +31301,7 @@
       </c>
       <c r="U49" s="49">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V49" s="6" t="s">
         <v>36</v>
@@ -31825,7 +31576,7 @@
       </c>
       <c r="U52" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V52" s="1" t="s">
         <v>36</v>
@@ -32189,7 +31940,7 @@
       </c>
       <c r="U3" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V3" s="1" t="s">
         <v>36</v>
@@ -32447,7 +32198,7 @@
       </c>
       <c r="U6" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V6" t="s">
         <v>36</v>
@@ -32680,7 +32431,7 @@
       </c>
       <c r="U9" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V9" t="s">
         <v>36</v>
@@ -32997,7 +32748,7 @@
       </c>
       <c r="U3" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V3" t="s">
         <v>36</v>
@@ -33326,7 +33077,7 @@
       </c>
       <c r="U6" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V6" t="s">
         <v>36</v>
@@ -33655,7 +33406,7 @@
       </c>
       <c r="U9" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V9" t="s">
         <v>36</v>
@@ -33984,7 +33735,7 @@
       </c>
       <c r="U12" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V12" t="s">
         <v>36</v>
@@ -34313,7 +34064,7 @@
       </c>
       <c r="U15" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V15" t="s">
         <v>36</v>
@@ -34707,7 +34458,7 @@
       </c>
       <c r="U21" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V21" t="s">
         <v>36</v>
@@ -35045,7 +34796,7 @@
       </c>
       <c r="U24" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V24" t="s">
         <v>36</v>
@@ -35392,7 +35143,7 @@
       </c>
       <c r="U27" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V27" t="s">
         <v>36</v>
@@ -36270,7 +36021,7 @@
       </c>
       <c r="U60" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V60" s="1" t="s">
         <v>36</v>
@@ -36583,7 +36334,7 @@
       </c>
       <c r="U3" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V3" s="1" t="s">
         <v>36</v>
@@ -36816,7 +36567,7 @@
       </c>
       <c r="U6" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V6" s="1" t="s">
         <v>36</v>
@@ -36868,7 +36619,7 @@
       </c>
       <c r="AL6" s="37">
         <f ca="1">TODAY()+366</f>
-        <v>44969</v>
+        <v>44974</v>
       </c>
       <c r="AM6" s="27" t="s">
         <v>620</v>
@@ -37056,7 +36807,7 @@
       </c>
       <c r="U9" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V9" s="1" t="s">
         <v>36</v>
@@ -37108,7 +36859,7 @@
       </c>
       <c r="AL9" s="37">
         <f ca="1">TODAY()+366</f>
-        <v>44969</v>
+        <v>44974</v>
       </c>
       <c r="AM9" s="27" t="s">
         <v>620</v>
@@ -37296,7 +37047,7 @@
       </c>
       <c r="U12" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V12" s="1" t="s">
         <v>36</v>
@@ -37348,7 +37099,7 @@
       </c>
       <c r="AL12" s="37">
         <f ca="1">TODAY()+366</f>
-        <v>44969</v>
+        <v>44974</v>
       </c>
       <c r="AM12" s="27" t="s">
         <v>620</v>
@@ -37545,7 +37296,7 @@
       </c>
       <c r="U15" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V15" s="1" t="s">
         <v>36</v>
@@ -37597,7 +37348,7 @@
       </c>
       <c r="AL15" s="37">
         <f ca="1">TODAY()+366</f>
-        <v>44969</v>
+        <v>44974</v>
       </c>
       <c r="AM15" s="27" t="s">
         <v>620</v>
@@ -37845,7 +37596,7 @@
       </c>
       <c r="U18" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V18" t="s">
         <v>36</v>
@@ -38192,7 +37943,7 @@
       </c>
       <c r="U21" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V21" t="s">
         <v>36</v>
@@ -38539,7 +38290,7 @@
       </c>
       <c r="U24" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V24" t="s">
         <v>36</v>
@@ -38883,7 +38634,7 @@
       </c>
       <c r="U27" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V27" t="s">
         <v>36</v>
@@ -39230,7 +38981,7 @@
       </c>
       <c r="U30" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V30" t="s">
         <v>36</v>
@@ -39580,7 +39331,7 @@
       </c>
       <c r="U33" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V33" t="s">
         <v>36</v>
@@ -39931,7 +39682,7 @@
       </c>
       <c r="U36" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V36" t="s">
         <v>36</v>
@@ -40278,7 +40029,7 @@
       </c>
       <c r="U39" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V39" t="s">
         <v>36</v>
@@ -40625,7 +40376,7 @@
       </c>
       <c r="U42" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V42" t="s">
         <v>36</v>
@@ -40972,7 +40723,7 @@
       </c>
       <c r="U45" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V45" t="s">
         <v>36</v>
@@ -41319,7 +41070,7 @@
       </c>
       <c r="U48" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V48" t="s">
         <v>36</v>
@@ -41669,7 +41420,7 @@
       </c>
       <c r="U51" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V51" t="s">
         <v>36</v>
@@ -42022,7 +41773,7 @@
       </c>
       <c r="U54" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V54" t="s">
         <v>36</v>
@@ -42384,7 +42135,7 @@
       </c>
       <c r="U57" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V57" t="s">
         <v>36</v>
@@ -42746,7 +42497,7 @@
       </c>
       <c r="U60" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V60" t="s">
         <v>36</v>
@@ -43099,7 +42850,7 @@
       </c>
       <c r="U63" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V63" t="s">
         <v>36</v>
@@ -43666,7 +43417,7 @@
       </c>
       <c r="J12" s="72">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
     </row>
     <row r="15" spans="1:46" x14ac:dyDescent="0.35">
@@ -43731,7 +43482,7 @@
       </c>
       <c r="J16" s="72">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
@@ -43796,7 +43547,7 @@
       </c>
       <c r="J19" s="72">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.35">
@@ -43931,7 +43682,7 @@
       </c>
       <c r="J25" s="72">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.35">
@@ -44586,7 +44337,7 @@
       </c>
       <c r="U3" s="72">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V3" s="1" t="s">
         <v>36</v>
@@ -44831,7 +44582,7 @@
       </c>
       <c r="U6" s="72">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V6" s="1" t="s">
         <v>36</v>
@@ -45022,7 +44773,7 @@
       </c>
       <c r="U9" s="72">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V9" s="14" t="s">
         <v>155</v>
@@ -45159,7 +44910,7 @@
       </c>
       <c r="U12" s="72">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V12" s="14" t="s">
         <v>155</v>
@@ -45350,7 +45101,7 @@
       </c>
       <c r="U15" s="72">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V15" s="1" t="s">
         <v>36</v>
@@ -45595,7 +45346,7 @@
       </c>
       <c r="U18" s="72">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V18" s="1" t="s">
         <v>36</v>
@@ -45888,7 +45639,7 @@
       </c>
       <c r="U3" s="1">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V3" s="1" t="s">
         <v>36</v>
@@ -46133,7 +45884,7 @@
       </c>
       <c r="U9" s="1">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V9" s="1" t="s">
         <v>36</v>
@@ -46375,7 +46126,7 @@
       </c>
       <c r="U12" s="1">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V12" s="1" t="s">
         <v>36</v>
@@ -46608,7 +46359,7 @@
       </c>
       <c r="U15" s="1">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V15" s="1" t="s">
         <v>36</v>
@@ -46841,7 +46592,7 @@
       </c>
       <c r="U18" s="1">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V18" s="1" t="s">
         <v>36</v>
@@ -47074,7 +46825,7 @@
       </c>
       <c r="U21" s="1">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V21" s="1" t="s">
         <v>36</v>
@@ -47319,7 +47070,7 @@
       </c>
       <c r="U24" s="1">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V24" s="1" t="s">
         <v>36</v>
@@ -47573,7 +47324,7 @@
       </c>
       <c r="U27" s="1">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V27" s="1" t="s">
         <v>36</v>
@@ -47812,7 +47563,7 @@
       </c>
       <c r="U30" s="1">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V30" s="1" t="s">
         <v>36</v>
@@ -48045,7 +47796,7 @@
       </c>
       <c r="U33" s="1">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V33" s="1" t="s">
         <v>36</v>
@@ -48275,7 +48026,7 @@
       </c>
       <c r="U36" s="1">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V36" s="1" t="s">
         <v>36</v>
@@ -48499,7 +48250,7 @@
       </c>
       <c r="U39" s="1">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V39" s="1" t="s">
         <v>36</v>
@@ -48735,7 +48486,7 @@
       </c>
       <c r="U42" s="1">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V42" s="1" t="s">
         <v>36</v>
@@ -48986,7 +48737,7 @@
       </c>
       <c r="U45" s="1">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V45" s="1" t="s">
         <v>36</v>
@@ -49237,7 +48988,7 @@
       </c>
       <c r="U48" s="1">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V48" s="1" t="s">
         <v>36</v>
@@ -49476,7 +49227,7 @@
       </c>
       <c r="U51" s="1">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V51" s="1" t="s">
         <v>36</v>
@@ -49709,7 +49460,7 @@
       </c>
       <c r="U54" s="1">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V54" s="1" t="s">
         <v>36</v>
@@ -49948,7 +49699,7 @@
       </c>
       <c r="U57" s="1">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V57" s="1" t="s">
         <v>36</v>
@@ -50187,7 +49938,7 @@
       </c>
       <c r="U60" s="1">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V60" s="1" t="s">
         <v>36</v>
@@ -50426,7 +50177,7 @@
       </c>
       <c r="U63" s="1">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V63" s="1" t="s">
         <v>36</v>
@@ -50656,7 +50407,7 @@
       </c>
       <c r="U66" s="1">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V66" s="1" t="s">
         <v>36</v>
@@ -50889,7 +50640,7 @@
       </c>
       <c r="U69" s="1">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V69" s="1" t="s">
         <v>36</v>
@@ -51134,7 +50885,7 @@
       </c>
       <c r="U72" s="1">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V72" s="1" t="s">
         <v>36</v>
@@ -51370,7 +51121,7 @@
       </c>
       <c r="U75" s="1">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V75" s="1" t="s">
         <v>36</v>
@@ -51606,7 +51357,7 @@
       </c>
       <c r="U78" s="1">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V78" s="1" t="s">
         <v>36</v>
@@ -51842,7 +51593,7 @@
       </c>
       <c r="U81" s="1">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V81" s="1" t="s">
         <v>36</v>
@@ -52078,7 +51829,7 @@
       </c>
       <c r="U84" s="1">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V84" s="1" t="s">
         <v>36</v>
@@ -52323,7 +52074,7 @@
       </c>
       <c r="U87" s="1">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V87" s="1" t="s">
         <v>36</v>
@@ -52568,7 +52319,7 @@
       </c>
       <c r="U90" s="1">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V90" s="1" t="s">
         <v>36</v>
@@ -52813,7 +52564,7 @@
       </c>
       <c r="U93" s="1">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V93" s="1" t="s">
         <v>36</v>
@@ -53049,7 +52800,7 @@
       </c>
       <c r="U96" s="1">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V96" s="1" t="s">
         <v>36</v>
@@ -53285,7 +53036,7 @@
       </c>
       <c r="U99" s="1">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V99" s="1" t="s">
         <v>36</v>
@@ -53518,7 +53269,7 @@
       </c>
       <c r="U102" s="1">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V102" s="1" t="s">
         <v>36</v>
@@ -53757,7 +53508,7 @@
       </c>
       <c r="U105" s="1">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V105" s="1" t="s">
         <v>36</v>
@@ -54008,7 +53759,7 @@
       </c>
       <c r="U108" s="1">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V108" s="1" t="s">
         <v>36</v>
@@ -54256,7 +54007,7 @@
       </c>
       <c r="U111" s="1">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V111" s="1" t="s">
         <v>36</v>
@@ -54501,7 +54252,7 @@
       </c>
       <c r="U114" s="1">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V114" s="1" t="s">
         <v>36</v>
@@ -54746,7 +54497,7 @@
       </c>
       <c r="U117" s="1">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V117" s="1" t="s">
         <v>36</v>
@@ -54988,7 +54739,7 @@
       </c>
       <c r="U120" s="1">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V120" s="1" t="s">
         <v>36</v>
@@ -55233,7 +54984,7 @@
       </c>
       <c r="U123" s="1">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V123" s="1" t="s">
         <v>36</v>
@@ -55481,7 +55232,7 @@
       </c>
       <c r="U126" s="1">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V126" s="1" t="s">
         <v>36</v>
@@ -55726,7 +55477,7 @@
       </c>
       <c r="U129" s="1">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V129" s="1" t="s">
         <v>36</v>
@@ -55968,7 +55719,7 @@
       </c>
       <c r="U132" s="1">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V132" s="1" t="s">
         <v>36</v>
@@ -56207,7 +55958,7 @@
       </c>
       <c r="U135" s="1">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V135" s="1" t="s">
         <v>36</v>
@@ -56452,7 +56203,7 @@
       </c>
       <c r="U138" s="1">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V138" s="1" t="s">
         <v>36</v>
@@ -56700,7 +56451,7 @@
       </c>
       <c r="U141" s="1">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V141" s="1" t="s">
         <v>36</v>
@@ -56942,7 +56693,7 @@
       </c>
       <c r="U144" s="1">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V144" s="1" t="s">
         <v>36</v>
@@ -57190,7 +56941,7 @@
       </c>
       <c r="U147" s="1">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V147" s="1" t="s">
         <v>36</v>
@@ -57438,7 +57189,7 @@
       </c>
       <c r="U150" s="1">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V150" s="1" t="s">
         <v>36</v>
@@ -57677,7 +57428,7 @@
       </c>
       <c r="U153" s="1">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V153" s="1" t="s">
         <v>36</v>
@@ -57916,7 +57667,7 @@
       </c>
       <c r="U156" s="1">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V156" s="1" t="s">
         <v>36</v>
@@ -58161,7 +57912,7 @@
       </c>
       <c r="U159" s="1">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V159" s="1" t="s">
         <v>36</v>
@@ -58406,7 +58157,7 @@
       </c>
       <c r="U162" s="1">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V162" s="1" t="s">
         <v>36</v>
@@ -58648,7 +58399,7 @@
       </c>
       <c r="U165" s="1">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V165" s="1" t="s">
         <v>36</v>
@@ -58893,7 +58644,7 @@
       </c>
       <c r="U168" s="1">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V168" s="1" t="s">
         <v>36</v>
@@ -59138,7 +58889,7 @@
       </c>
       <c r="U171" s="1">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V171" s="1" t="s">
         <v>36</v>
@@ -59383,7 +59134,7 @@
       </c>
       <c r="U174" s="1">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V174" s="1" t="s">
         <v>36</v>
@@ -59628,7 +59379,7 @@
       </c>
       <c r="U177" s="1">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V177" s="1" t="s">
         <v>36</v>
@@ -59873,7 +59624,7 @@
       </c>
       <c r="U180" s="1">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V180" s="1" t="s">
         <v>36</v>
@@ -60122,7 +59873,7 @@
       </c>
       <c r="U183" s="1">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V183" s="1" t="s">
         <v>36</v>
@@ -60373,7 +60124,7 @@
       </c>
       <c r="U186" s="1">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V186" s="1" t="s">
         <v>36</v>
@@ -60624,7 +60375,7 @@
       </c>
       <c r="U189" s="1">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V189" s="1" t="s">
         <v>36</v>
@@ -60875,7 +60626,7 @@
       </c>
       <c r="U192" s="1">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V192" s="1" t="s">
         <v>36</v>
@@ -61358,7 +61109,7 @@
       </c>
       <c r="U3" s="38">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V3" t="s">
         <v>36</v>
@@ -61639,7 +61390,7 @@
       </c>
       <c r="U6" s="38">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V6" t="s">
         <v>36</v>
@@ -61914,7 +61665,7 @@
       </c>
       <c r="U9" s="38">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V9" t="s">
         <v>36</v>
@@ -62213,7 +61964,7 @@
       </c>
       <c r="U12" s="38">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V12" t="s">
         <v>36</v>
@@ -62539,7 +62290,7 @@
       </c>
       <c r="U16" s="38">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V16" t="s">
         <v>36</v>
@@ -62980,7 +62731,7 @@
       </c>
       <c r="U3" s="60">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V3" s="56" t="s">
         <v>36</v>
@@ -63318,7 +63069,7 @@
       </c>
       <c r="U6" s="60">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V6" s="56" t="s">
         <v>36</v>
@@ -63656,7 +63407,7 @@
       </c>
       <c r="U9" s="60">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V9" s="56" t="s">
         <v>36</v>
@@ -63988,7 +63739,7 @@
       </c>
       <c r="U12" s="60">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V12" s="56" t="s">
         <v>36</v>
@@ -64326,7 +64077,7 @@
       </c>
       <c r="U15" s="60">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V15" s="56" t="s">
         <v>36</v>
@@ -64667,7 +64418,7 @@
       </c>
       <c r="U18" s="60">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V18" s="56" t="s">
         <v>36</v>
@@ -65008,7 +64759,7 @@
       </c>
       <c r="U21" s="60">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V21" s="56" t="s">
         <v>36</v>
@@ -65359,7 +65110,7 @@
       </c>
       <c r="U27" s="69">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V27" s="57" t="s">
         <v>36</v>
@@ -65646,7 +65397,7 @@
       </c>
       <c r="U33" s="69">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V33" s="57" t="s">
         <v>36</v>
@@ -65945,7 +65696,7 @@
       </c>
       <c r="U36" s="38">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V36" t="s">
         <v>36</v>
@@ -66244,7 +65995,7 @@
       </c>
       <c r="U39" s="38">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V39" t="s">
         <v>36</v>
@@ -66594,7 +66345,7 @@
       </c>
       <c r="U4" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V4" t="s">
         <v>36</v>
@@ -66845,7 +66596,7 @@
       </c>
       <c r="U7" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V7" t="s">
         <v>36</v>
@@ -67132,7 +66883,7 @@
       </c>
       <c r="U10" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V10" t="s">
         <v>36</v>
@@ -67449,7 +67200,7 @@
       </c>
       <c r="U13" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V13" t="s">
         <v>36</v>
@@ -67775,7 +67526,7 @@
       </c>
       <c r="U16" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V16" t="s">
         <v>36</v>
@@ -68104,7 +67855,7 @@
       </c>
       <c r="U19" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V19" t="s">
         <v>36</v>
@@ -68433,7 +68184,7 @@
       </c>
       <c r="U22" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V22" t="s">
         <v>36</v>
@@ -68759,7 +68510,7 @@
       </c>
       <c r="U25" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V25" t="s">
         <v>36</v>
@@ -69085,7 +68836,7 @@
       </c>
       <c r="U28" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V28" t="s">
         <v>36</v>
@@ -69411,7 +69162,7 @@
       </c>
       <c r="U31" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V31" t="s">
         <v>36</v>
@@ -69734,7 +69485,7 @@
       </c>
       <c r="U34" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V34" t="s">
         <v>36</v>
@@ -70057,7 +69808,7 @@
       </c>
       <c r="U37" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V37" t="s">
         <v>36</v>
@@ -70380,7 +70131,7 @@
       </c>
       <c r="U40" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V40" t="s">
         <v>36</v>
@@ -70703,7 +70454,7 @@
       </c>
       <c r="U43" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V43" t="s">
         <v>36</v>
@@ -71026,7 +70777,7 @@
       </c>
       <c r="U46" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V46" t="s">
         <v>36</v>
@@ -71313,7 +71064,7 @@
       </c>
       <c r="U49" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V49" t="s">
         <v>36</v>
@@ -71600,7 +71351,7 @@
       </c>
       <c r="U52" s="12">
         <f ca="1">NOW()</f>
-        <v>44603.689741550923</v>
+        <v>44608.637273495369</v>
       </c>
       <c r="V52" t="s">
         <v>36</v>
